--- a/data/puzzle_samples/wednesday_03262025.xlsx
+++ b/data/puzzle_samples/wednesday_03262025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\witzi\OneDrive\Documents\neu_part_2\CS5100_FAI\code\ai_crossword_solver\data\puzzle_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CB9653-D7AE-4730-BA20-31D3D1F50A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E73C04F-B7DC-4425-8987-C5EE7DCD3763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32160" yWindow="3360" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="175">
   <si>
     <t>number</t>
   </si>
@@ -306,6 +306,264 @@
   </si>
   <si>
     <t>length (optional column, for checking only)</t>
+  </si>
+  <si>
+    <t>cass</t>
+  </si>
+  <si>
+    <t>gulps</t>
+  </si>
+  <si>
+    <t>shout</t>
+  </si>
+  <si>
+    <t>lmao</t>
+  </si>
+  <si>
+    <t>ideal</t>
+  </si>
+  <si>
+    <t>poets</t>
+  </si>
+  <si>
+    <t>iota</t>
+  </si>
+  <si>
+    <t>notmy</t>
+  </si>
+  <si>
+    <t>rodeo</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>nap</t>
+  </si>
+  <si>
+    <t>bic</t>
+  </si>
+  <si>
+    <t>having</t>
+  </si>
+  <si>
+    <t>thoughts</t>
+  </si>
+  <si>
+    <t>ela</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>llcs</t>
+  </si>
+  <si>
+    <t>wan</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>coverallthebases</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>visages</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>jpeg</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>pbr</t>
+  </si>
+  <si>
+    <t>givesthe</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>ira</t>
+  </si>
+  <si>
+    <t>tlc</t>
+  </si>
+  <si>
+    <t>totem</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>teri</t>
+  </si>
+  <si>
+    <t>abram</t>
+  </si>
+  <si>
+    <t>hipto</t>
+  </si>
+  <si>
+    <t>yams</t>
+  </si>
+  <si>
+    <t>silly</t>
+  </si>
+  <si>
+    <t>steep</t>
+  </si>
+  <si>
+    <t>ames</t>
+  </si>
+  <si>
+    <t>cliché</t>
+  </si>
+  <si>
+    <t>amoral</t>
+  </si>
+  <si>
+    <t>sativa</t>
+  </si>
+  <si>
+    <t>soami</t>
+  </si>
+  <si>
+    <t>gin</t>
+  </si>
+  <si>
+    <t>udon</t>
+  </si>
+  <si>
+    <t>letat</t>
+  </si>
+  <si>
+    <t>pamphlets</t>
+  </si>
+  <si>
+    <t>sly</t>
+  </si>
+  <si>
+    <t>sprigs</t>
+  </si>
+  <si>
+    <t>hooch</t>
+  </si>
+  <si>
+    <t>oed</t>
+  </si>
+  <si>
+    <t>ute</t>
+  </si>
+  <si>
+    <t>tso</t>
+  </si>
+  <si>
+    <t>endor</t>
+  </si>
+  <si>
+    <t>buc</t>
+  </si>
+  <si>
+    <t>gina</t>
+  </si>
+  <si>
+    <t>oldhat</t>
+  </si>
+  <si>
+    <t>twos</t>
+  </si>
+  <si>
+    <t>sane</t>
+  </si>
+  <si>
+    <t>velvet</t>
+  </si>
+  <si>
+    <t>nes</t>
+  </si>
+  <si>
+    <t>jet</t>
+  </si>
+  <si>
+    <t>slightbit</t>
+  </si>
+  <si>
+    <t>bas</t>
+  </si>
+  <si>
+    <t>cub</t>
+  </si>
+  <si>
+    <t>oneg</t>
+  </si>
+  <si>
+    <t>vidi</t>
+  </si>
+  <si>
+    <t>egad</t>
+  </si>
+  <si>
+    <t>beret</t>
+  </si>
+  <si>
+    <t>jeremy</t>
+  </si>
+  <si>
+    <t>psa</t>
+  </si>
+  <si>
+    <t>prteam</t>
+  </si>
+  <si>
+    <t>beerme</t>
+  </si>
+  <si>
+    <t>remiss</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>elope</t>
+  </si>
+  <si>
+    <t>gotya</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>rbi</t>
+  </si>
+  <si>
+    <t>irl</t>
+  </si>
+  <si>
+    <t>ahs</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>answer (optional column, for checking only)</t>
+  </si>
+  <si>
+    <t>jonesed</t>
   </si>
 </sst>
 </file>
@@ -638,23 +896,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="5" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="34.77734375" style="3" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,8 +934,11 @@
       <c r="G1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -699,8 +960,11 @@
       <c r="G2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -722,8 +986,11 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>10</v>
       </c>
@@ -745,8 +1012,11 @@
       <c r="G4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>15</v>
       </c>
@@ -768,8 +1038,11 @@
       <c r="G5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>16</v>
       </c>
@@ -791,8 +1064,11 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>17</v>
       </c>
@@ -814,8 +1090,11 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>18</v>
       </c>
@@ -837,8 +1116,11 @@
       <c r="G8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>19</v>
       </c>
@@ -860,8 +1142,11 @@
       <c r="G9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>20</v>
       </c>
@@ -883,8 +1168,11 @@
       <c r="G10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>21</v>
       </c>
@@ -906,8 +1194,11 @@
       <c r="G11" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>23</v>
       </c>
@@ -929,8 +1220,11 @@
       <c r="G12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>24</v>
       </c>
@@ -952,8 +1246,11 @@
       <c r="G13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>25</v>
       </c>
@@ -975,8 +1272,11 @@
       <c r="G14" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>27</v>
       </c>
@@ -998,8 +1298,11 @@
       <c r="G15" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>31</v>
       </c>
@@ -1021,8 +1324,11 @@
       <c r="G16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>32</v>
       </c>
@@ -1044,8 +1350,11 @@
       <c r="G17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>34</v>
       </c>
@@ -1067,8 +1376,11 @@
       <c r="G18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>35</v>
       </c>
@@ -1090,8 +1402,11 @@
       <c r="G19" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>37</v>
       </c>
@@ -1113,8 +1428,11 @@
       <c r="G20" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>39</v>
       </c>
@@ -1136,8 +1454,11 @@
       <c r="G21" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H21" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>40</v>
       </c>
@@ -1159,8 +1480,11 @@
       <c r="G22" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H22" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45</v>
       </c>
@@ -1182,8 +1506,11 @@
       <c r="G23" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>46</v>
       </c>
@@ -1205,8 +1532,11 @@
       <c r="G24" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H24" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>47</v>
       </c>
@@ -1228,8 +1558,11 @@
       <c r="G25" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H25" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>48</v>
       </c>
@@ -1251,8 +1584,11 @@
       <c r="G26" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H26" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>50</v>
       </c>
@@ -1274,8 +1610,11 @@
       <c r="G27" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>51</v>
       </c>
@@ -1297,8 +1636,11 @@
       <c r="G28" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>54</v>
       </c>
@@ -1320,8 +1662,11 @@
       <c r="G29" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H29" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>57</v>
       </c>
@@ -1343,8 +1688,11 @@
       <c r="G30" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H30" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>59</v>
       </c>
@@ -1366,8 +1714,11 @@
       <c r="G31" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H31" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>60</v>
       </c>
@@ -1389,8 +1740,11 @@
       <c r="G32" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H32" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>62</v>
       </c>
@@ -1412,8 +1766,11 @@
       <c r="G33" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H33" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>63</v>
       </c>
@@ -1435,8 +1792,11 @@
       <c r="G34" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H34" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>66</v>
       </c>
@@ -1458,8 +1818,11 @@
       <c r="G35" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>68</v>
       </c>
@@ -1481,8 +1844,11 @@
       <c r="G36" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H36" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>69</v>
       </c>
@@ -1504,8 +1870,11 @@
       <c r="G37" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H37" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>70</v>
       </c>
@@ -1527,8 +1896,11 @@
       <c r="G38" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H38" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>71</v>
       </c>
@@ -1550,8 +1922,11 @@
       <c r="G39" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H39" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>72</v>
       </c>
@@ -1573,8 +1948,11 @@
       <c r="G40" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H40" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>73</v>
       </c>
@@ -1596,8 +1974,11 @@
       <c r="G41" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H41" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>74</v>
       </c>
@@ -1619,8 +2000,11 @@
       <c r="G42" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H42" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -1642,8 +2026,11 @@
       <c r="G43" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H43" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -1665,8 +2052,11 @@
       <c r="G44" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H44" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>3</v>
       </c>
@@ -1688,8 +2078,11 @@
       <c r="G45" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H45" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>4</v>
       </c>
@@ -1711,8 +2104,11 @@
       <c r="G46" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H46" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>5</v>
       </c>
@@ -1734,8 +2130,11 @@
       <c r="G47" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H47" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>6</v>
       </c>
@@ -1757,8 +2156,11 @@
       <c r="G48" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H48" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>7</v>
       </c>
@@ -1780,8 +2182,11 @@
       <c r="G49" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H49" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>8</v>
       </c>
@@ -1803,8 +2208,11 @@
       <c r="G50" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H50" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>9</v>
       </c>
@@ -1826,8 +2234,11 @@
       <c r="G51" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H51" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>10</v>
       </c>
@@ -1849,8 +2260,11 @@
       <c r="G52" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H52" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>11</v>
       </c>
@@ -1872,8 +2286,11 @@
       <c r="G53" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H53" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>12</v>
       </c>
@@ -1895,8 +2312,11 @@
       <c r="G54" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H54" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>13</v>
       </c>
@@ -1918,8 +2338,11 @@
       <c r="G55" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H55" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>14</v>
       </c>
@@ -1941,8 +2364,11 @@
       <c r="G56" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H56" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>22</v>
       </c>
@@ -1964,8 +2390,11 @@
       <c r="G57" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H57" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>24</v>
       </c>
@@ -1987,8 +2416,11 @@
       <c r="G58" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H58" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>26</v>
       </c>
@@ -2010,8 +2442,11 @@
       <c r="G59" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H59" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>28</v>
       </c>
@@ -2033,8 +2468,11 @@
       <c r="G60" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H60" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>29</v>
       </c>
@@ -2056,8 +2494,11 @@
       <c r="G61" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H61" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>30</v>
       </c>
@@ -2079,8 +2520,11 @@
       <c r="G62" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H62" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>33</v>
       </c>
@@ -2102,8 +2546,11 @@
       <c r="G63" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H63" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>36</v>
       </c>
@@ -2125,8 +2572,11 @@
       <c r="G64" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H64" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>37</v>
       </c>
@@ -2148,8 +2598,11 @@
       <c r="G65" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H65" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>38</v>
       </c>
@@ -2171,8 +2624,11 @@
       <c r="G66" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H66" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>39</v>
       </c>
@@ -2194,8 +2650,11 @@
       <c r="G67" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H67" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>40</v>
       </c>
@@ -2217,8 +2676,11 @@
       <c r="G68" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H68" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>41</v>
       </c>
@@ -2240,8 +2702,11 @@
       <c r="G69" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H69" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>42</v>
       </c>
@@ -2263,8 +2728,11 @@
       <c r="G70" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H70" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43</v>
       </c>
@@ -2286,8 +2754,11 @@
       <c r="G71" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H71" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44</v>
       </c>
@@ -2309,8 +2780,11 @@
       <c r="G72" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H72" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>48</v>
       </c>
@@ -2332,8 +2806,11 @@
       <c r="G73" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H73" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>49</v>
       </c>
@@ -2355,8 +2832,11 @@
       <c r="G74" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H74" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>51</v>
       </c>
@@ -2378,8 +2858,11 @@
       <c r="G75" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H75" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>52</v>
       </c>
@@ -2401,8 +2884,11 @@
       <c r="G76" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H76" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>53</v>
       </c>
@@ -2424,8 +2910,11 @@
       <c r="G77" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H77" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>55</v>
       </c>
@@ -2447,8 +2936,11 @@
       <c r="G78" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H78" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>56</v>
       </c>
@@ -2470,8 +2962,11 @@
       <c r="G79" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H79" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>58</v>
       </c>
@@ -2493,8 +2988,11 @@
       <c r="G80" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H80" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>61</v>
       </c>
@@ -2516,8 +3014,11 @@
       <c r="G81" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H81" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>63</v>
       </c>
@@ -2539,8 +3040,11 @@
       <c r="G82" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H82" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>64</v>
       </c>
@@ -2562,8 +3066,11 @@
       <c r="G83" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H83" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>65</v>
       </c>
@@ -2585,8 +3092,11 @@
       <c r="G84" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H84" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>66</v>
       </c>
@@ -2608,8 +3118,11 @@
       <c r="G85" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H85" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>67</v>
       </c>
@@ -2631,35 +3144,38 @@
       <c r="G86" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H86" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
     </row>
-    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
     </row>
-    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
